--- a/data8.xlsx
+++ b/data8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MATLAB\Examples\R2020b\matlab\PRMIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B895F-60B3-4BEE-B0AC-A31AD28D3253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B1762-152F-4770-91FC-59EB0CF643BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f ca="1">Sheet2!B3</f>
-        <v>380.31307326200846</v>
+        <v>378.5702287838086</v>
       </c>
     </row>
   </sheetData>
@@ -437,7 +437,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B2">
         <f ca="1">367+RAND()*18.45</f>
-        <v>369.29431420779525</v>
+        <v>382.26074431018833</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3">
         <f ca="1">367+RAND()*18.45</f>
-        <v>380.31307326200846</v>
+        <v>378.5702287838086</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f ca="1">-(100-(Sheet2!B3*100/Sheet2!B2))</f>
-        <v>2.9837337403502886</v>
+        <v>-0.9654445509542029</v>
       </c>
     </row>
   </sheetData>
